--- a/Casos de prueba/TC-5.1.xlsx
+++ b/Casos de prueba/TC-5.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04148662-ED4E-4596-AB98-AAD799715CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF123E7-98CE-4281-8B43-81C285C99A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="7500" windowHeight="7680" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
+    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Carrito de compras" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -125,15 +125,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>Enter Userid &amp; Password</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>Cutomer is logged in</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
@@ -186,6 +171,18 @@
   </si>
   <si>
     <t>TC-05</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Tester: Mike Smith</t>
+  </si>
+  <si>
+    <t>Tester: Jane Walters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: Thomas Hamingway </t>
   </si>
 </sst>
 </file>
@@ -588,7 +585,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -672,8 +669,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -708,35 +732,39 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1058,26 +1086,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28383780-2B72-1143-9AB2-BF547C4E1958}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1202,33 +1233,33 @@
       <c r="F11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
-      <c r="G14" s="40" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="G14" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -1244,302 +1275,355 @@
       <c r="E15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40" t="s">
+      <c r="H15" s="49"/>
+      <c r="I15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40" t="s">
+      <c r="J15" s="49"/>
+      <c r="K15" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40" t="s">
+      <c r="L15" s="49"/>
+      <c r="M15" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="40"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="42"/>
+      <c r="G16" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="34"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="G17" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="H17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="46"/>
-      <c r="G17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>36</v>
-      </c>
       <c r="I17" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="G18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="48"/>
-      <c r="G18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>40</v>
-      </c>
       <c r="I18" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="N18" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="G19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>3</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="G20" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="60"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="47" t="s">
+      <c r="H25" s="30"/>
+      <c r="I25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="G19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>3</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="G20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="26">
-        <v>4</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="49"/>
-    </row>
-    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -1548,48 +1632,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-5.1.xlsx
+++ b/Casos de prueba/TC-5.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF123E7-98CE-4281-8B43-81C285C99A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68056B7E-5B9A-4D17-83AE-CB5B0F6F48B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="4710" windowWidth="7500" windowHeight="7680" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Carrito de compras" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -86,18 +86,12 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>Userid = mngr450932</t>
-  </si>
-  <si>
     <t>Pass = YmumYha</t>
   </si>
   <si>
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Verify customer can login after entering valid userid and password</t>
-  </si>
-  <si>
     <t>Executions</t>
   </si>
   <si>
@@ -152,18 +146,12 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Enter Userid &amp; Password</t>
-  </si>
-  <si>
     <t>Credential can be entered</t>
   </si>
   <si>
     <t>Click Submit</t>
   </si>
   <si>
-    <t>Cutomer is logged in</t>
-  </si>
-  <si>
     <t>Defects Created</t>
   </si>
   <si>
@@ -176,13 +164,34 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Tester: Mike Smith</t>
-  </si>
-  <si>
-    <t>Tester: Jane Walters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester: Thomas Hamingway </t>
+    <t>Verify customer can login after entering invalid user and password</t>
+  </si>
+  <si>
+    <t>Enter invalid User &amp; invalid Password</t>
+  </si>
+  <si>
+    <t>Cutomer cannot logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sign </t>
+  </si>
+  <si>
+    <t>"Non existent user"</t>
+  </si>
+  <si>
+    <t>Userid = juanperez@gmail.com</t>
+  </si>
+  <si>
+    <t>Tester: Camila Sturlesi</t>
+  </si>
+  <si>
+    <t>Tester: Martina Degui</t>
+  </si>
+  <si>
+    <t>Tester: Sebastian Deina</t>
+  </si>
+  <si>
+    <t>Tester:  Lucas Argerich</t>
   </si>
 </sst>
 </file>
@@ -304,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -569,6 +578,30 @@
       <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -669,102 +702,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1086,12 +1119,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28383780-2B72-1143-9AB2-BF547C4E1958}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1100,15 +1134,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1189,7 +1223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -1200,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1212,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1233,355 +1267,403 @@
       <c r="F11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
-      <c r="G14" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="J15" s="47"/>
+      <c r="K15" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49" t="s">
+      <c r="L15" s="47"/>
+      <c r="M15" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="49"/>
+      <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="33" t="s">
+      <c r="G16" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="34"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="47"/>
+      <c r="M16" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="E17" s="51"/>
+      <c r="G17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37" t="s">
+      <c r="H17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="G17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="I17" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="53"/>
+      <c r="G18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="31" t="s">
+      <c r="H18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="G18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>37</v>
-      </c>
       <c r="I18" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K18" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L18" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N18" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="53"/>
+      <c r="G19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="29">
+        <v>3</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="G20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>4</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="31" t="s">
+      <c r="H25" s="57"/>
+      <c r="I25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="57"/>
+    </row>
+    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="G19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
-        <v>3</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="52"/>
-      <c r="G20" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="M20" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="N20" s="59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="60"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -1590,48 +1672,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-5.1.xlsx
+++ b/Casos de prueba/TC-5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68056B7E-5B9A-4D17-83AE-CB5B0F6F48B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196E42B-319E-4CAD-99EE-7F9794AAE665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Defects Created</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>TC-05</t>
   </si>
   <si>
@@ -192,6 +186,9 @@
   </si>
   <si>
     <t>Tester:  Lucas Argerich</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -721,6 +718,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -750,54 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1119,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28383780-2B72-1143-9AB2-BF547C4E1958}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1134,15 +1131,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1223,7 +1220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>1</v>
       </c>
@@ -1234,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1267,33 +1264,33 @@
       <c r="F11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="G14" s="46" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="G14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="47"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -1307,203 +1304,203 @@
         <v>21</v>
       </c>
       <c r="E15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="47"/>
-      <c r="I15" s="46" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="46" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="47"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="45"/>
+      <c r="I16" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="46" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="47"/>
-      <c r="M16" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="N16" s="47"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>28</v>
       </c>
       <c r="C17" s="49"/>
       <c r="D17" s="50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="51"/>
       <c r="G17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="I17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="K17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="M17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>30</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52" t="s">
+      <c r="E18" s="41"/>
+      <c r="G18" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="G18" s="27" t="s">
+      <c r="H18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="I18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="K18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="M18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="53"/>
+      <c r="B19" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="41"/>
       <c r="G19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="I19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="K19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="M19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
-      <c r="B20" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="55"/>
+      <c r="B20" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="43"/>
       <c r="G20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>35</v>
-      </c>
       <c r="I20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="32" t="s">
+      <c r="M20" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="59"/>
+      <c r="B21" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="38"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -1515,10 +1512,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -1530,10 +1527,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -1551,77 +1548,117 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="57"/>
+      <c r="G25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -1630,48 +1667,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-5.1.xlsx
+++ b/Casos de prueba/TC-5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196E42B-319E-4CAD-99EE-7F9794AAE665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70248066-792E-4E0E-A6A3-FA8867CA9433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>Pass = YmumYha</t>
-  </si>
-  <si>
     <t>Test Scenario</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>Verify customer can login after entering invalid user and password</t>
-  </si>
-  <si>
     <t>Enter invalid User &amp; invalid Password</t>
   </si>
   <si>
@@ -173,9 +167,6 @@
     <t>"Non existent user"</t>
   </si>
   <si>
-    <t>Userid = juanperez@gmail.com</t>
-  </si>
-  <si>
     <t>Tester: Camila Sturlesi</t>
   </si>
   <si>
@@ -189,6 +180,21 @@
   </si>
   <si>
     <t>Automated</t>
+  </si>
+  <si>
+    <t>Verify customer can not login after entering a unexisted user</t>
+  </si>
+  <si>
+    <t>Userid = prueba@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass = sample</t>
+  </si>
+  <si>
+    <t>Error: Invalid UserId / Password</t>
+  </si>
+  <si>
+    <t>it does not identiffy the wrong data</t>
   </si>
 </sst>
 </file>
@@ -718,83 +724,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1114,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28383780-2B72-1143-9AB2-BF547C4E1958}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1131,15 +1137,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1231,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1243,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1264,243 +1270,243 @@
       <c r="F11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45"/>
+      <c r="G14" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="G14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="45"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>19</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="44" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="44" t="s">
+      <c r="J15" s="48"/>
+      <c r="K15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="45"/>
-      <c r="K15" s="44" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="45"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="48"/>
+      <c r="I16" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="45"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="C17" s="51"/>
+      <c r="D17" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50" t="s">
+      <c r="E17" s="53"/>
+      <c r="G17" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="51"/>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="25" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="25" t="s">
-        <v>30</v>
-      </c>
       <c r="M17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40" t="s">
+      <c r="E18" s="55"/>
+      <c r="G18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="G18" s="27" t="s">
+      <c r="H18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="I18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="K18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="M18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="N18" s="28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="41"/>
+      <c r="B19" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="55"/>
       <c r="G19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="I19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="K19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="28" t="s">
-        <v>34</v>
-      </c>
       <c r="M19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="28" t="s">
         <v>33</v>
-      </c>
-      <c r="N19" s="28" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>3</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="43"/>
+      <c r="B20" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="57"/>
       <c r="G20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H20" s="33" t="s">
-        <v>34</v>
-      </c>
       <c r="I20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="32" t="s">
+      <c r="M20" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="38"/>
+      <c r="B21" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="58"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -1512,10 +1518,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -1527,10 +1533,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -1548,75 +1554,127 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" s="37"/>
+      <c r="G25" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="60"/>
     </row>
     <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:E14"/>
@@ -1625,48 +1683,6 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-5.1.xlsx
+++ b/Casos de prueba/TC-5.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70248066-792E-4E0E-A6A3-FA8867CA9433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37526B91-D875-4704-8DF6-2183F3B4DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{59EA97E8-3BC1-6F4F-B448-D0578FF7298D}"/>
   </bookViews>
@@ -724,6 +724,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -753,54 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28383780-2B72-1143-9AB2-BF547C4E1958}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -1142,10 +1142,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1270,33 +1270,33 @@
       <c r="F11" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45"/>
-      <c r="G14" s="46" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
+      <c r="G14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="48"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -1312,53 +1312,53 @@
       <c r="E15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="46" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="48"/>
-      <c r="K15" s="46" t="s">
+      <c r="J15" s="45"/>
+      <c r="K15" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="46" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="48"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="46" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="47"/>
-      <c r="K16" s="49" t="s">
+      <c r="J16" s="46"/>
+      <c r="K16" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="46" t="s">
+      <c r="L16" s="45"/>
+      <c r="M16" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="48"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="51"/>
       <c r="G17" s="25" t="s">
         <v>28</v>
       </c>
@@ -1388,14 +1388,14 @@
       <c r="A18" s="26">
         <v>1</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="41"/>
       <c r="G18" s="27" t="s">
         <v>32</v>
       </c>
@@ -1425,14 +1425,14 @@
       <c r="A19" s="26">
         <v>2</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="41"/>
       <c r="G19" s="27" t="s">
         <v>32</v>
       </c>
@@ -1462,14 +1462,14 @@
       <c r="A20" s="29">
         <v>3</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="56" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="43"/>
       <c r="G20" s="32" t="s">
         <v>32</v>
       </c>
@@ -1499,14 +1499,14 @@
       <c r="A21" s="26">
         <v>4</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="38"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
@@ -1518,10 +1518,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
@@ -1533,10 +1533,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
@@ -1554,72 +1554,72 @@
       <c r="E24" s="31"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60" t="s">
+      <c r="H25" s="37"/>
+      <c r="I25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60" t="s">
+      <c r="J25" s="37"/>
+      <c r="K25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="60"/>
-      <c r="M25" s="60" t="s">
+      <c r="L25" s="37"/>
+      <c r="M25" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="60"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
@@ -1633,6 +1633,48 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
@@ -1641,48 +1683,6 @@
     <mergeCell ref="I30:J30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
